--- a/wishlist.xlsx
+++ b/wishlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Breadcrumb in the “Wish List” page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Share wishlist functionality</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -248,16 +253,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,6 +341,14 @@
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
